--- a/tabl.xlsx
+++ b/tabl.xlsx
@@ -25,12 +25,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>vasya</t>
-  </si>
-  <si>
-    <t>piter</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -47,6 +41,12 @@
   </si>
   <si>
     <t>in work</t>
+  </si>
+  <si>
+    <t>Vasya</t>
+  </si>
+  <si>
+    <t>Piter</t>
   </si>
 </sst>
 </file>
@@ -62,15 +62,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,12 +84,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,53 +414,53 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
